--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
@@ -103,19 +103,344 @@
 </t>
   </si>
   <si>
+    <t>Device &amp; Application Clear the Alarm when set using interval param</t>
+  </si>
+  <si>
+    <t>Restore with ApplicationEvent</t>
+  </si>
+  <si>
+    <t>Version Event(java script)</t>
+  </si>
+  <si>
+    <t>History:Back Navigation</t>
+  </si>
+  <si>
+    <t>Hourglass hidden</t>
+  </si>
+  <si>
+    <t>PowerOn Event URL Offline page</t>
+  </si>
+  <si>
+    <t>Change Start page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-1370
+};
+validate4
+{
+validate_AppMinimized=AppsScreen
+};
+validate5
+{
+validate_PageTitle=Device &amp; Application
+validate_Result=Minimized
+validate_Result=Restored
+};
+</t>
+  </si>
+  <si>
+    <t>Set autoRotate is enabled</t>
+  </si>
+  <si>
+    <t>Set autoRotate is disabled</t>
+  </si>
+  <si>
+    <t>Timer with start method when interval is set</t>
+  </si>
+  <si>
+    <t>Timer with stop</t>
+  </si>
+  <si>
+    <t>Zoom- text parameter to 0</t>
+  </si>
+  <si>
+    <t>Zoom- text parameter less than 1</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-1500
+};
+validate4
+{
+validate_Screenshot=VT187_1500_before
+};
+validate5
+{
+validate_Screenshot=VT187_1500_after
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_1500_string);
+validate3;
+TakeScreenshot(VT187_1500_before);
+validate4;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+TakeScreenshot(VT187_1500_after);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-2348
+};
+validate4
+{
+validate_Screenshot=VT187_2348_before
+};
+validate5
+{
+validate_Screenshot=VT187_2348_after
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2348_string);
+validate3;
+wait(2);
+TakeScreenshot(VT187_2348_before);
+validate4;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+TakeScreenshot(VT187_2348_after);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2323_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(5);
+CheckUITextContains(Timer_Stopped);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-2323
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2321_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(5);
+validate4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-2321
+};
+validate4
+{
+validate_Result=Current time is using javascript is
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-2262
+};
+validate4
+{
+validate_ScreenRotate=false
+validate_Result=normal
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2261_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2262_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-1483
+};
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_1483_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+Lock_UnlockScreen(lock);
+Lock_UnlockScreen(unlock);
+wait(2);
+CheckUITextContains(Powered_Up);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-2261
+};
+validate4
+{
+validate_ScreenRotate=true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-1431
+};
+validate4
+{
+validate_isIconDisplayed=hourglass_xpath,true
+};
+validate5
+{
+validate_isIconDisplayed=hourglass_xpath,false
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_1431_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wait(10);
+CheckUITextContains(Hourglass_Hidden);
+ClickUIButtonText(OK);
+validate5;</t>
+  </si>
+  <si>
     <t>wait(2);
 validate1;
 link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT187_1349_string);
+SelectTestToRun(VT187_1424_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(60);
 validate4;</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -125,28 +450,92 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-1368
+validate_Text_Exists=VT187-1424
 };
 validate4
 {
-validate_AppMinimized=AppsScreen
-};
-</t>
-  </si>
-  <si>
-    <t>wait(2);
+validate_PageTitle=RE 2.2 Tests
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-1382
+};
+validate4
+{
+validate_Result=productVersion
+validate_Result=hotFixes
+validate_Result=componentVersions
+validate_Result=module
+validate_Result=NVPOrder
+validate_Result=version
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT187_1368_string);
+SelectTestToRun(VT187_1382_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(2);
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_1370_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;
+wait(10);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_1352_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(33);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-1352
+};
+validate4
+{
+validate_Result=Alarm Cleared
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(DeviceApplication_test_link);
 wait(4);
@@ -161,7 +550,7 @@
 validate5;</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -180,181 +569,10 @@
 validate5
 {
 validate_Screenshot=VT187_2354_after
-};
-</t>
-  </si>
-  <si>
-    <t>Device &amp; Application Clear the Alarm when set using interval param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-1352
-};
-validate4
-{
-validate_Result=Alarm Cleared
-};
-</t>
-  </si>
-  <si>
-    <t>Restore with ApplicationEvent</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_1370_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wait(10);
-validate5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_1382_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>Version Event(java script)</t>
-  </si>
-  <si>
-    <t>History:Back Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_1424_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-1424
-};
-validate4
-{
-validate_PageTitle=RE 2.2 Tests
-};
-</t>
-  </si>
-  <si>
-    <t>Hourglass hidden</t>
-  </si>
-  <si>
-    <t>PowerOn Event URL Offline page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_1483_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-Lock_UnlockScreen(lock);
-Lock_UnlockScreen(unlock);
-wait(2);
-CheckUITextContains(Powered_Up);
-ClickUIButtonText(OK);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-1483
-};
-</t>
-  </si>
-  <si>
-    <t>Change Start page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-2276
-};
-validate4
-{
-validate_Screenshot=VT187_2276
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-1382
-};
-validate4
-{
-validate_Result=productVersion
-validate_Result=hotFixes
-validate_Result=componentVersions
-validate_Result=module
-validate_Result=NVPOrder
-validate_Result=version
-};
-</t>
-  </si>
-  <si>
-    <t>wait(2);
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(DeviceApplication_test_link);
 wait(2);
@@ -370,7 +588,25 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-2276
+};
+validate4
+{
+validate_Screenshot=VT187_2276
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(DeviceApplication_test_link);
 wait(2);
@@ -384,7 +620,7 @@
 validate5;</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -394,7 +630,7 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-1370
+validate_Text_Exists=VT187-1369
 };
 validate4
 {
@@ -402,14 +638,12 @@
 };
 validate5
 {
-validate_PageTitle=Device &amp; Application
 validate_Result=Minimized
 validate_Result=Restored
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+};</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -419,290 +653,36 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-1369
+validate_Text_Exists=VT187-1368
 };
 validate4
 {
 validate_AppMinimized=AppsScreen
-};
-validate5
-{
-validate_Result=Minimized
-validate_Result=Restored
-};
-</t>
-  </si>
-  <si>
-    <t>wait(2);
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT187_1352_string);
+SelectTestToRun(VT187_1368_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(33);
+wait(2);
 validate4;</t>
   </si>
   <si>
-    <t>Set autoRotate is enabled</t>
-  </si>
-  <si>
-    <t>Set autoRotate is disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-2261
-};
-validate4
-{
-validate_ScreenRotate=true
-}
-</t>
-  </si>
-  <si>
-    <t>Timer with start method when interval is set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
+    <t>wait(3);
 validate1;
 link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT187_2321_string);
+SelectTestToRun(VT187_1349_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-2321
-};
-validate4
-{
-validate_Result=Current time is using javascript is
-}
-</t>
-  </si>
-  <si>
-    <t>Timer with stop</t>
-  </si>
-  <si>
-    <t>Zoom- text parameter to 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-2348
-};
-validate4
-{
-validate_Screenshot=VT187_2348_before
-};
-validate5
-{
-validate_Screenshot=VT187_2348_after
-};
-</t>
-  </si>
-  <si>
-    <t>Zoom- text parameter less than 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-1500
-};
-validate4
-{
-validate_Screenshot=VT187_1500_before
-};
-validate5
-{
-validate_Screenshot=VT187_1500_after
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_2323_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(5);
-CheckUITextContains(Timer_Stopped);
-ClickUIButtonText(OK);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-2323
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_2261_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_2262_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_2348_string);
-validate3;
-wait(2);
-TakeScreenshot(VT187_2348_before);
-validate4;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-TakeScreenshot(VT187_2348_after);
-validate5;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_1500_string);
-validate3;
-TakeScreenshot(VT187_1500_before);
-validate4;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-TakeScreenshot(VT187_1500_after);
-validate5;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-2262
-};
-validate4
-{
-validate_ScreenRotate=false
-validate_Result=normal
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_1431_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;
-wait(10);
-CheckUITextContains(Hourglass_Hidden);
-ClickUIButtonText(OK);
-validate5;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-1431
-};
-validate4
-{
-validate_isIconDisplayed=hourglass_xpath,true
-};
-validate5
-{
-validate_isIconDisplayed=hourglass_xpath,false
-};
-</t>
+wait(60);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1265,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
@@ -1296,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>19</v>
@@ -1305,7 +1287,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="217.5" thickBot="1">
+    <row r="4" spans="1:11" ht="204.75" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1323,16 +1305,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="281.25" thickBot="1">
+    <row r="5" spans="1:11" ht="268.5" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1350,16 +1332,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="217.5" thickBot="1">
+    <row r="6" spans="1:11" ht="204.75" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1377,16 +1359,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="268.5" thickBot="1">
+    <row r="7" spans="1:11" ht="255.75" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1404,16 +1386,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="217.5" thickBot="1">
+    <row r="8" spans="1:11" ht="204.75" thickBot="1">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1425,16 +1407,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1452,22 +1434,22 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="294" thickBot="1">
+    <row r="10" spans="1:11" ht="268.5" thickBot="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1479,22 +1461,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="217.5" thickBot="1">
+    <row r="11" spans="1:11" ht="204.75" thickBot="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1506,22 +1488,22 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="294" thickBot="1">
+    <row r="12" spans="1:11" ht="281.25" thickBot="1">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1533,22 +1515,22 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="204.75" thickBot="1">
+    <row r="13" spans="1:11" ht="166.5" thickBot="1">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1560,22 +1542,22 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="230.25" thickBot="1">
+    <row r="14" spans="1:11" ht="204.75" thickBot="1">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1587,16 +1569,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1614,16 +1596,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1641,22 +1623,22 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="204.75" thickBot="1">
+    <row r="17" spans="1:11" ht="153.75" thickBot="1">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1668,22 +1650,22 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="268.5" thickBot="1">
+    <row r="18" spans="1:11" ht="255.75" thickBot="1">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1695,22 +1677,22 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="268.5" thickBot="1">
+    <row r="19" spans="1:11" ht="255.75" thickBot="1">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1722,16 +1704,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
@@ -60,9 +60,6 @@
     <t>Set the alarm with Repeat value to true.</t>
   </si>
   <si>
-    <t>Device &amp; Application-JS</t>
-  </si>
-  <si>
     <t>Application with Quit</t>
   </si>
   <si>
@@ -683,6 +680,9 @@
 ClickRunTest(runtest_top_xpath);
 wait(60);
 validate4;</t>
+  </si>
+  <si>
+    <t>RE22-Device &amp; Application</t>
   </si>
 </sst>
 </file>
@@ -1185,9 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1241,17 +1239,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1278,10 +1276,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1299,16 +1297,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1326,16 +1324,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1353,16 +1351,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1380,16 +1378,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1407,16 +1405,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1434,16 +1432,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1461,16 +1459,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1488,16 +1486,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1515,16 +1513,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1542,16 +1540,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1569,16 +1567,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1596,16 +1594,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1623,16 +1621,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1650,16 +1648,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1677,16 +1675,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1704,16 +1702,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
@@ -121,31 +121,6 @@
     <t>Change Start page</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-1370
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};
-validate5
-{
-validate_PageTitle=Device &amp; Application
-validate_Result=Minimized
-validate_Result=Restored
-};
-</t>
-  </si>
-  <si>
     <t>Set autoRotate is enabled</t>
   </si>
   <si>
@@ -617,47 +592,6 @@
 validate5;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-1369
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};
-validate5
-{
-validate_Result=Minimized
-validate_Result=Restored
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-1368
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};</t>
-  </si>
-  <si>
     <t>wait(3);
 validate1;
 link_Click(DeviceApplication_test_link);
@@ -683,6 +617,72 @@
   </si>
   <si>
     <t>RE22-Device &amp; Application</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-1368
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-1369
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};
+validate5
+{
+validate_Result=Minimized
+validate_Result=Restored
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-1370
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};
+validate5
+{
+validate_PageTitle=Device &amp; Application
+validate_Result=Minimized
+validate_Result=Restored
+};
+</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1239,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1276,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>18</v>
@@ -1285,7 +1287,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="204.75" thickBot="1">
+    <row r="4" spans="1:11" ht="217.5" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1303,16 +1305,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="268.5" thickBot="1">
+    <row r="5" spans="1:11" ht="281.25" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1330,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1357,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1384,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1411,16 +1413,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="294" thickBot="1">
+    <row r="9" spans="1:11" ht="306.75" thickBot="1">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1438,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1465,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1492,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1519,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1546,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1567,16 +1569,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1594,16 +1596,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1621,16 +1623,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1648,16 +1650,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1675,16 +1677,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1702,16 +1704,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
@@ -331,21 +331,6 @@
 </t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_1483_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-Lock_UnlockScreen(lock);
-Lock_UnlockScreen(unlock);
-wait(2);
-CheckUITextContains(Powered_Up);
-ClickUIButtonText(OK);</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
@@ -683,6 +668,22 @@
 validate_Result=Restored
 };
 </t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_1483_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+Lock_UnlockScreen(lock);
+wait(5);
+Lock_UnlockScreen(unlock);
+wait(5);
+CheckUITextContains(Powered_Up);
+ClickUIButtonText(OK);</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1241,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1278,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>18</v>
@@ -1305,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1332,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1359,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1386,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1413,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1440,10 +1441,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1467,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1494,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1521,16 +1522,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="166.5" thickBot="1">
+    <row r="13" spans="1:11" ht="179.25" thickBot="1">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>43</v>
@@ -1578,7 +1579,7 @@
         <v>41</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_DeviceApplication.xlsx
@@ -534,40 +534,6 @@
 link_Click(DeviceApplication_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT187_2276_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-link_Click(VT187_2276_textbox_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-TakeScreenshot(VT187_2276);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT187-2276
-};
-validate4
-{
-validate_Screenshot=VT187_2276
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
 SelectTestToRun(VT187_1369_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
@@ -684,6 +650,38 @@
 wait(5);
 CheckUITextContains(Powered_Up);
 ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT187-2276
+};
+validate4
+{
+validate_textBoxData=VT187_2276_textbox_xpath,a
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2276_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+textBoxClick(VT187_2276_textbox_xpath);
+sendKeyEvents(a);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1186,9 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1242,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1279,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>18</v>
@@ -1306,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1333,16 +1329,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="204.75" thickBot="1">
+    <row r="6" spans="1:11" ht="217.5" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1360,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1444,7 +1440,7 @@
         <v>51</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1549,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>43</v>
